--- a/bin/sheets/main_db/teams/AFG/PlayerPerformance_3877.xlsx
+++ b/bin/sheets/main_db/teams/AFG/PlayerPerformance_3877.xlsx
@@ -7,8 +7,10 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting Extra" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -426,6 +428,69 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>NAME</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>BATTING_HAND</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>BOWL_STYLE</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>3877</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Gulbadin Naib</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Right Handed</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Right Arm Medium Fast</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:J76"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -452,7 +517,7 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>MATCH_CARD_LINK</t>
+          <t>MATCH_CODE</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
@@ -504,7 +569,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3310</t>
+          <t>3310</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -556,7 +621,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3372</t>
+          <t>3372</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -608,7 +673,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3406</t>
+          <t>3406</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -648,7 +713,6 @@
           <t>4</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr"/>
       <c r="C5" t="inlineStr">
         <is>
           <t>31/03/2012</t>
@@ -656,7 +720,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3407</t>
+          <t>3407</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -708,7 +772,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3421</t>
+          <t>3421</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -760,7 +824,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3437</t>
+          <t>3437</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -800,7 +864,6 @@
           <t>7</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr"/>
       <c r="C8" t="inlineStr">
         <is>
           <t>06/03/2013</t>
@@ -808,7 +871,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3482</t>
+          <t>3482</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -860,7 +923,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3483</t>
+          <t>3483</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -912,7 +975,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3650</t>
+          <t>3650</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -964,7 +1027,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3652</t>
+          <t>3652</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -1016,7 +1079,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3705</t>
+          <t>3705</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -1068,7 +1131,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3707</t>
+          <t>3707</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -1108,7 +1171,6 @@
           <t>13</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr"/>
       <c r="C14" t="inlineStr">
         <is>
           <t>08/01/2015</t>
@@ -1116,7 +1178,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3721</t>
+          <t>3721</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -1168,7 +1230,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3725</t>
+          <t>3725</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -1220,7 +1282,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3764</t>
+          <t>3764</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1272,7 +1334,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3873</t>
+          <t>3873</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1324,7 +1386,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3918</t>
+          <t>3918</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1376,7 +1438,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3991</t>
+          <t>3991</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1428,7 +1490,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3993</t>
+          <t>3993</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1480,7 +1542,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3994</t>
+          <t>3994</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1532,7 +1594,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3996</t>
+          <t>3996</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1584,7 +1646,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3998</t>
+          <t>3998</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1636,7 +1698,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4006</t>
+          <t>4006</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1688,7 +1750,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4007</t>
+          <t>4007</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -1740,7 +1802,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4008</t>
+          <t>4008</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -1792,7 +1854,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4009</t>
+          <t>4009</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -1832,7 +1894,6 @@
           <t>27</t>
         </is>
       </c>
-      <c r="B28" t="inlineStr"/>
       <c r="C28" t="inlineStr">
         <is>
           <t>24/03/2017</t>
@@ -1840,7 +1901,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4010</t>
+          <t>4010</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -1892,7 +1953,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4040</t>
+          <t>4040</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -1944,7 +2005,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4043</t>
+          <t>4043</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -1984,7 +2045,6 @@
           <t>30</t>
         </is>
       </c>
-      <c r="B31" t="inlineStr"/>
       <c r="C31" t="inlineStr">
         <is>
           <t>14/06/2017</t>
@@ -1992,7 +2052,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4046</t>
+          <t>4046</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -2044,7 +2104,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4092</t>
+          <t>4092</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -2096,7 +2156,7 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4093</t>
+          <t>4093</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -2148,7 +2208,7 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4097</t>
+          <t>4097</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -2188,7 +2248,6 @@
           <t>34</t>
         </is>
       </c>
-      <c r="B35" t="inlineStr"/>
       <c r="C35" t="inlineStr">
         <is>
           <t>09/02/2018</t>
@@ -2196,7 +2255,7 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4129</t>
+          <t>4129</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -2248,7 +2307,7 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4131</t>
+          <t>4131</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -2288,7 +2347,6 @@
           <t>36</t>
         </is>
       </c>
-      <c r="B37" t="inlineStr"/>
       <c r="C37" t="inlineStr">
         <is>
           <t>13/02/2018</t>
@@ -2296,7 +2354,7 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4132</t>
+          <t>4132</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -2348,7 +2406,7 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4140</t>
+          <t>4140</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -2400,7 +2458,7 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4154</t>
+          <t>4154</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -2452,7 +2510,7 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4160</t>
+          <t>4160</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -2504,7 +2562,7 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4163</t>
+          <t>4163</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -2556,7 +2614,7 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4164</t>
+          <t>4164</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -2608,7 +2666,7 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4189</t>
+          <t>4189</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -2660,7 +2718,7 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4190</t>
+          <t>4190</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -2700,7 +2758,6 @@
           <t>44</t>
         </is>
       </c>
-      <c r="B45" t="inlineStr"/>
       <c r="C45" t="inlineStr">
         <is>
           <t>31/08/2018</t>
@@ -2708,7 +2765,7 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4192</t>
+          <t>4192</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -2760,7 +2817,7 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4195</t>
+          <t>4195</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -2812,7 +2869,7 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4198</t>
+          <t>4198</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -2864,7 +2921,7 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4200</t>
+          <t>4200</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -2916,7 +2973,7 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4202</t>
+          <t>4202</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -2968,7 +3025,7 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4203</t>
+          <t>4203</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -3020,7 +3077,7 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4257</t>
+          <t>4257</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -3072,7 +3129,7 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4259</t>
+          <t>4259</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -3124,7 +3181,7 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4265</t>
+          <t>4265</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
@@ -3164,7 +3221,6 @@
           <t>53</t>
         </is>
       </c>
-      <c r="B54" t="inlineStr"/>
       <c r="C54" t="inlineStr">
         <is>
           <t>10/05/2019</t>
@@ -3172,7 +3228,7 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4290</t>
+          <t>4290</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
@@ -3224,7 +3280,7 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4299</t>
+          <t>4299</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
@@ -3276,7 +3332,7 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4301</t>
+          <t>4301</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
@@ -3328,7 +3384,7 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4306</t>
+          <t>4306</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
@@ -3380,7 +3436,7 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4309</t>
+          <t>4309</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
@@ -3432,7 +3488,7 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4315</t>
+          <t>4315</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
@@ -3484,7 +3540,7 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4323</t>
+          <t>4323</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
@@ -3536,7 +3592,7 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4326</t>
+          <t>4326</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
@@ -3588,7 +3644,7 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4332</t>
+          <t>4332</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
@@ -3640,7 +3696,7 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4335</t>
+          <t>4335</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
@@ -3692,7 +3748,7 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4340</t>
+          <t>4340</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
@@ -3744,7 +3800,7 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4348</t>
+          <t>4348</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
@@ -3796,7 +3852,7 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4377</t>
+          <t>4377</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
@@ -3848,7 +3904,7 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4444</t>
+          <t>4444</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
@@ -3888,7 +3944,6 @@
           <t>67</t>
         </is>
       </c>
-      <c r="B68" t="inlineStr"/>
       <c r="C68" t="inlineStr">
         <is>
           <t>24/01/2021</t>
@@ -3896,7 +3951,7 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4446</t>
+          <t>4446</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
@@ -3948,7 +4003,7 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4448</t>
+          <t>4448</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
@@ -4000,7 +4055,7 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4525</t>
+          <t>4525</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
@@ -4052,7 +4107,7 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4528</t>
+          <t>4528</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
@@ -4104,7 +4159,7 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4537</t>
+          <t>4537</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
@@ -4144,7 +4199,6 @@
           <t>72</t>
         </is>
       </c>
-      <c r="B73" t="inlineStr"/>
       <c r="C73" t="inlineStr">
         <is>
           <t>28/02/2022</t>
@@ -4152,7 +4206,7 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4539</t>
+          <t>4539</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
@@ -4204,7 +4258,7 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4671</t>
+          <t>4671</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
@@ -4256,7 +4310,7 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4674</t>
+          <t>4674</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
@@ -4308,7 +4362,7 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4675</t>
+          <t>4675</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
@@ -4347,7 +4401,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4369,7 +4423,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>MATCH_CARD_LINK</t>
+          <t>MATCH_CODE</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -4406,7 +4460,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3406</t>
+          <t>3406</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -4443,7 +4497,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3407</t>
+          <t>3407</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -4480,7 +4534,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3421</t>
+          <t>3421</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -4517,7 +4571,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3437</t>
+          <t>3437</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -4554,7 +4608,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3482</t>
+          <t>3482</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -4591,7 +4645,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3483</t>
+          <t>3483</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -4628,7 +4682,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3650</t>
+          <t>3650</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -4665,7 +4719,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3705</t>
+          <t>3705</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -4702,7 +4756,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3707</t>
+          <t>3707</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -4739,7 +4793,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3721</t>
+          <t>3721</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -4776,7 +4830,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3725</t>
+          <t>3725</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -4813,7 +4867,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3764</t>
+          <t>3764</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -4850,7 +4904,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3873</t>
+          <t>3873</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -4887,7 +4941,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3918</t>
+          <t>3918</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -4924,7 +4978,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3991</t>
+          <t>3991</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -4961,7 +5015,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3993</t>
+          <t>3993</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -4998,7 +5052,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3994</t>
+          <t>3994</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -5035,7 +5089,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3996</t>
+          <t>3996</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -5072,7 +5126,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3998</t>
+          <t>3998</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -5109,7 +5163,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4006</t>
+          <t>4006</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -5146,7 +5200,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4007</t>
+          <t>4007</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -5183,7 +5237,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4008</t>
+          <t>4008</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -5220,7 +5274,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4009</t>
+          <t>4009</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -5257,7 +5311,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4010</t>
+          <t>4010</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -5294,7 +5348,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4040</t>
+          <t>4040</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -5331,7 +5385,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4043</t>
+          <t>4043</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -5368,7 +5422,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4092</t>
+          <t>4092</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -5405,7 +5459,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4093</t>
+          <t>4093</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -5442,7 +5496,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4097</t>
+          <t>4097</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -5479,7 +5533,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4129</t>
+          <t>4129</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -5516,7 +5570,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4131</t>
+          <t>4131</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -5553,7 +5607,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4132</t>
+          <t>4132</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -5590,7 +5644,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4140</t>
+          <t>4140</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -5627,7 +5681,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4154</t>
+          <t>4154</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -5664,7 +5718,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4160</t>
+          <t>4160</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -5701,7 +5755,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4163</t>
+          <t>4163</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -5738,7 +5792,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4164</t>
+          <t>4164</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -5775,7 +5829,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4189</t>
+          <t>4189</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -5812,7 +5866,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4190</t>
+          <t>4190</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -5849,7 +5903,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4192</t>
+          <t>4192</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -5886,7 +5940,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4195</t>
+          <t>4195</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -5923,7 +5977,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4198</t>
+          <t>4198</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -5960,7 +6014,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4200</t>
+          <t>4200</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -5997,7 +6051,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4202</t>
+          <t>4202</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -6034,7 +6088,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4203</t>
+          <t>4203</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -6071,7 +6125,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4257</t>
+          <t>4257</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -6108,7 +6162,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4265</t>
+          <t>4265</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -6145,7 +6199,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4290</t>
+          <t>4290</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -6182,7 +6236,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4299</t>
+          <t>4299</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -6219,7 +6273,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4301</t>
+          <t>4301</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -6256,7 +6310,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4306</t>
+          <t>4306</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -6293,7 +6347,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4309</t>
+          <t>4309</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -6330,7 +6384,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4315</t>
+          <t>4315</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -6367,7 +6421,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4323</t>
+          <t>4323</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -6404,7 +6458,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4326</t>
+          <t>4326</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -6441,7 +6495,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4332</t>
+          <t>4332</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -6478,7 +6532,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4335</t>
+          <t>4335</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -6515,7 +6569,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4340</t>
+          <t>4340</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -6552,7 +6606,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4348</t>
+          <t>4348</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -6589,7 +6643,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4377</t>
+          <t>4377</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -6626,7 +6680,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4444</t>
+          <t>4444</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -6663,7 +6717,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4446</t>
+          <t>4446</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -6700,7 +6754,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4448</t>
+          <t>4448</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -6737,7 +6791,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4525</t>
+          <t>4525</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -6774,7 +6828,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4528</t>
+          <t>4528</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -6811,7 +6865,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4537</t>
+          <t>4537</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -6848,7 +6902,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4539</t>
+          <t>4539</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -6885,7 +6939,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4671</t>
+          <t>4671</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -6922,7 +6976,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4675</t>
+          <t>4675</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -6948,6 +7002,563 @@
       <c r="G70" t="inlineStr">
         <is>
           <t>0/48</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>MATCH_CODE</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>BATTING_POSITION</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>NUM_4</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>NUM_6</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>PERCENT_RUNS_OF_TOTAL</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>MAN_OF_MATCH</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>4306</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>6</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>14.98%</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>4309</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>6</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>15.13%</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>4315</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>5</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>2.33%</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>4323</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>8</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>4.00%</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>4326</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr"/>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>4332</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr"/>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>4335</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>1</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>23.50%</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>4340</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>2</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>6.61%</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>4348</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>1</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>1.74%</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>4377</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>8</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>8.76%</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>4444</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>6</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>0.70%</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>4446</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>8</v>
+      </c>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>4448</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>7</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>13.53%</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>4525</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr"/>
+      <c r="C15" t="inlineStr"/>
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr"/>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>4528</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>6</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>0.84%</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>4537</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>7</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>7.91%</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>4539</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>7</v>
+      </c>
+      <c r="C18" t="inlineStr"/>
+      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="inlineStr"/>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>4671</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr"/>
+      <c r="C19" t="inlineStr"/>
+      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="inlineStr"/>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>4674</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>6</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>2.63%</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>4675</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr"/>
+      <c r="C21" t="inlineStr"/>
+      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="inlineStr"/>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>NO</t>
         </is>
       </c>
     </row>

--- a/bin/sheets/main_db/teams/AFG/PlayerPerformance_3877.xlsx
+++ b/bin/sheets/main_db/teams/AFG/PlayerPerformance_3877.xlsx
@@ -11,6 +11,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting Extra" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling Extra" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -7182,10 +7183,6 @@
           <t>4326</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr"/>
-      <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr"/>
       <c r="F6" t="inlineStr">
         <is>
           <t>NO</t>
@@ -7198,353 +7195,638 @@
           <t>4332</t>
         </is>
       </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>4335</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>1</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>23.50%</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>4340</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>2</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>6.61%</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>4348</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>1</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>1.74%</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>4377</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>8</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>8.76%</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>4444</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>6</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>0.70%</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>4446</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>8</v>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>4448</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>7</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>13.53%</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>4525</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>4528</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>6</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>0.84%</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>4537</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>7</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>7.91%</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>4539</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>7</v>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>4671</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>4674</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>6</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>2.63%</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>4675</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>MATCH_CODE</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>MAIDEN_OVERS</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>PERCENT_WICKETS_OF_ALL</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>4301</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>60.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>4306</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>10.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>4309</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>4315</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>4323</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>10.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>4326</t>
+        </is>
+      </c>
       <c r="B7" t="inlineStr"/>
       <c r="C7" t="inlineStr"/>
-      <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>4335</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>1</v>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>23.50%</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
+          <t>4332</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr"/>
+      <c r="C8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>4340</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>2</v>
+          <t>4335</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>6.61%</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>NO</t>
+          <t>20.00%</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>4348</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>1</v>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
+          <t>4340</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>1.74%</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
+      <c r="C10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>4377</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>8</v>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
+          <t>4348</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>8.76%</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
+      <c r="C11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>4444</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>6</v>
-      </c>
-      <c r="C12" t="inlineStr">
+          <t>4377</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>0.70%</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
+      <c r="C12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>4446</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>8</v>
-      </c>
-      <c r="C13" t="inlineStr"/>
-      <c r="D13" t="inlineStr"/>
-      <c r="E13" t="inlineStr"/>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>NO</t>
+          <t>4444</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>10.00%</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>4448</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>7</v>
+          <t>4446</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>13.53%</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>NO</t>
+          <t>10.00%</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>4525</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr"/>
+          <t>4448</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
       <c r="C15" t="inlineStr"/>
-      <c r="D15" t="inlineStr"/>
-      <c r="E15" t="inlineStr"/>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>4528</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>6</v>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>0.84%</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
+          <t>4525</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr"/>
+      <c r="C16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>4537</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>7</v>
-      </c>
-      <c r="C17" t="inlineStr">
+          <t>4528</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>7.91%</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
+      <c r="C17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>4539</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>7</v>
+          <t>4537</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="C18" t="inlineStr"/>
-      <c r="D18" t="inlineStr"/>
-      <c r="E18" t="inlineStr"/>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>4671</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr"/>
+          <t>4539</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
       <c r="C19" t="inlineStr"/>
-      <c r="D19" t="inlineStr"/>
-      <c r="E19" t="inlineStr"/>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>4674</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>6</v>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>2.63%</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
+          <t>4671</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr"/>
+      <c r="C20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -7554,13 +7836,6 @@
       </c>
       <c r="B21" t="inlineStr"/>
       <c r="C21" t="inlineStr"/>
-      <c r="D21" t="inlineStr"/>
-      <c r="E21" t="inlineStr"/>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/bin/sheets/main_db/teams/AFG/PlayerPerformance_3877.xlsx
+++ b/bin/sheets/main_db/teams/AFG/PlayerPerformance_3877.xlsx
@@ -1,17 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting Extra" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling Extra" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -714,6 +712,7 @@
           <t>4</t>
         </is>
       </c>
+      <c r="B5" t="inlineStr"/>
       <c r="C5" t="inlineStr">
         <is>
           <t>31/03/2012</t>
@@ -865,6 +864,7 @@
           <t>7</t>
         </is>
       </c>
+      <c r="B8" t="inlineStr"/>
       <c r="C8" t="inlineStr">
         <is>
           <t>06/03/2013</t>
@@ -1172,6 +1172,7 @@
           <t>13</t>
         </is>
       </c>
+      <c r="B14" t="inlineStr"/>
       <c r="C14" t="inlineStr">
         <is>
           <t>08/01/2015</t>
@@ -1895,6 +1896,7 @@
           <t>27</t>
         </is>
       </c>
+      <c r="B28" t="inlineStr"/>
       <c r="C28" t="inlineStr">
         <is>
           <t>24/03/2017</t>
@@ -2046,6 +2048,7 @@
           <t>30</t>
         </is>
       </c>
+      <c r="B31" t="inlineStr"/>
       <c r="C31" t="inlineStr">
         <is>
           <t>14/06/2017</t>
@@ -2249,6 +2252,7 @@
           <t>34</t>
         </is>
       </c>
+      <c r="B35" t="inlineStr"/>
       <c r="C35" t="inlineStr">
         <is>
           <t>09/02/2018</t>
@@ -2348,6 +2352,7 @@
           <t>36</t>
         </is>
       </c>
+      <c r="B37" t="inlineStr"/>
       <c r="C37" t="inlineStr">
         <is>
           <t>13/02/2018</t>
@@ -2759,6 +2764,7 @@
           <t>44</t>
         </is>
       </c>
+      <c r="B45" t="inlineStr"/>
       <c r="C45" t="inlineStr">
         <is>
           <t>31/08/2018</t>
@@ -3222,6 +3228,7 @@
           <t>53</t>
         </is>
       </c>
+      <c r="B54" t="inlineStr"/>
       <c r="C54" t="inlineStr">
         <is>
           <t>10/05/2019</t>
@@ -3945,6 +3952,7 @@
           <t>67</t>
         </is>
       </c>
+      <c r="B68" t="inlineStr"/>
       <c r="C68" t="inlineStr">
         <is>
           <t>24/01/2021</t>
@@ -4200,6 +4208,7 @@
           <t>72</t>
         </is>
       </c>
+      <c r="B73" t="inlineStr"/>
       <c r="C73" t="inlineStr">
         <is>
           <t>28/02/2022</t>
@@ -7009,835 +7018,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:F21"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>MATCH_CODE</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>BATTING_POSITION</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>NUM_4</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>NUM_6</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>PERCENT_RUNS_OF_TOTAL</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>MAN_OF_MATCH</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>4306</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>6</v>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>14.98%</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>4309</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>6</v>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>15.13%</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>4315</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>5</v>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>2.33%</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>4323</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>8</v>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>4.00%</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>4326</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>4332</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>4335</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>1</v>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>23.50%</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>4340</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>2</v>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>6.61%</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>4348</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>1</v>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>1.74%</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>4377</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>8</v>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>8.76%</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>4444</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>6</v>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>0.70%</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>4446</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>8</v>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>4448</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>7</v>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>13.53%</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>4525</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>4528</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>6</v>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>0.84%</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>4537</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>7</v>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>7.91%</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>4539</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>7</v>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>4671</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>4674</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>6</v>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>2.63%</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>4675</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C21"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>MATCH_CODE</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>MAIDEN_OVERS</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>PERCENT_WICKETS_OF_ALL</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>4301</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>60.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>4306</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>10.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>4309</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr"/>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>4315</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr"/>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>4323</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>10.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>4326</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr"/>
-      <c r="C7" t="inlineStr"/>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>4332</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr"/>
-      <c r="C8" t="inlineStr"/>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>4335</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>20.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>4340</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr"/>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>4348</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr"/>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>4377</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr"/>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>4444</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>10.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>4446</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>10.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>4448</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr"/>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>4525</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr"/>
-      <c r="C16" t="inlineStr"/>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>4528</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr"/>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>4537</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr"/>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>4539</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr"/>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>4671</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr"/>
-      <c r="C20" t="inlineStr"/>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>4675</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr"/>
-      <c r="C21" t="inlineStr"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>
--- a/bin/sheets/main_db/teams/AFG/PlayerPerformance_3877.xlsx
+++ b/bin/sheets/main_db/teams/AFG/PlayerPerformance_3877.xlsx
@@ -1,15 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting Extra" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling Extra" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -712,7 +714,6 @@
           <t>4</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr"/>
       <c r="C5" t="inlineStr">
         <is>
           <t>31/03/2012</t>
@@ -864,7 +865,6 @@
           <t>7</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr"/>
       <c r="C8" t="inlineStr">
         <is>
           <t>06/03/2013</t>
@@ -1172,7 +1172,6 @@
           <t>13</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr"/>
       <c r="C14" t="inlineStr">
         <is>
           <t>08/01/2015</t>
@@ -1896,7 +1895,6 @@
           <t>27</t>
         </is>
       </c>
-      <c r="B28" t="inlineStr"/>
       <c r="C28" t="inlineStr">
         <is>
           <t>24/03/2017</t>
@@ -2048,7 +2046,6 @@
           <t>30</t>
         </is>
       </c>
-      <c r="B31" t="inlineStr"/>
       <c r="C31" t="inlineStr">
         <is>
           <t>14/06/2017</t>
@@ -2252,7 +2249,6 @@
           <t>34</t>
         </is>
       </c>
-      <c r="B35" t="inlineStr"/>
       <c r="C35" t="inlineStr">
         <is>
           <t>09/02/2018</t>
@@ -2352,7 +2348,6 @@
           <t>36</t>
         </is>
       </c>
-      <c r="B37" t="inlineStr"/>
       <c r="C37" t="inlineStr">
         <is>
           <t>13/02/2018</t>
@@ -2764,7 +2759,6 @@
           <t>44</t>
         </is>
       </c>
-      <c r="B45" t="inlineStr"/>
       <c r="C45" t="inlineStr">
         <is>
           <t>31/08/2018</t>
@@ -3228,7 +3222,6 @@
           <t>53</t>
         </is>
       </c>
-      <c r="B54" t="inlineStr"/>
       <c r="C54" t="inlineStr">
         <is>
           <t>10/05/2019</t>
@@ -3952,7 +3945,6 @@
           <t>67</t>
         </is>
       </c>
-      <c r="B68" t="inlineStr"/>
       <c r="C68" t="inlineStr">
         <is>
           <t>24/01/2021</t>
@@ -4208,7 +4200,6 @@
           <t>72</t>
         </is>
       </c>
-      <c r="B73" t="inlineStr"/>
       <c r="C73" t="inlineStr">
         <is>
           <t>28/02/2022</t>
@@ -7018,4 +7009,2861 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F76"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>MATCH_CODE</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>BATTING_POSITION</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>NUM_4</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>NUM_6</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>PERCENT_RUNS_OF_TOTAL</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>MAN_OF_MATCH</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>3310</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>9</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>3372</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>6</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>3.59%</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>3406</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>8</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>0.65%</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>3407</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>9</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>3421</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>8</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>18.27%</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>3437</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>3482</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>3483</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>7</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>8.05%</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>3650</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>8</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>8.98%</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>3652</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>3</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>11.97%</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>3705</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>6</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>3.23%</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>3707</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>3721</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>3725</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>9</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>3764</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>8</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>3873</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>3918</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>4</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>0.79%</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>3991</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>3993</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>7</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>2.10%</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>3994</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>6</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>12.70%</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>3996</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>9</v>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>9.01%</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>3998</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>3</v>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>2.37%</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>4006</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>8</v>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>2.40%</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>4007</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>8</v>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>4008</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>4009</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>6</v>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>0.91%</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>4010</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>7</v>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>4040</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>8</v>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>19.34%</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>4043</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>8</v>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>37.78%</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>4046</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>4092</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>7</v>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>7.14%</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>4093</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>7</v>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>1.36%</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>4097</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>7</v>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>8.47%</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>4129</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>9</v>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>4131</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>8</v>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>4132</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>4140</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>8</v>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>4.31%</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>4154</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>4160</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>2</v>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>41.57%</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>4163</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>2</v>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>21.13%</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>4164</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>2</v>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>6.80%</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>4189</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>3</v>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>28.19%</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>4190</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>3</v>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>3.85%</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>4192</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>7</v>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>4195</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>8</v>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>1.61%</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>4198</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>8</v>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>16.47%</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>4200</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>8</v>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>3.89%</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>4202</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>9</v>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>4203</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>4257</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>5</v>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>27.88%</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>4259</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>4265</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>6</v>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>0.45%</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>4290</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>6</v>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>4299</t>
+        </is>
+      </c>
+      <c r="B55" t="n">
+        <v>7</v>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>14.49%</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>4301</t>
+        </is>
+      </c>
+      <c r="B56" t="n">
+        <v>6</v>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>0.98%</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>4306</t>
+        </is>
+      </c>
+      <c r="B57" t="n">
+        <v>6</v>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>14.98%</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>4309</t>
+        </is>
+      </c>
+      <c r="B58" t="n">
+        <v>6</v>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>15.13%</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>4315</t>
+        </is>
+      </c>
+      <c r="B59" t="n">
+        <v>5</v>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>2.33%</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>4323</t>
+        </is>
+      </c>
+      <c r="B60" t="n">
+        <v>8</v>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>4.00%</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>4326</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>4332</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>4335</t>
+        </is>
+      </c>
+      <c r="B63" t="n">
+        <v>1</v>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>23.50%</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>4340</t>
+        </is>
+      </c>
+      <c r="B64" t="n">
+        <v>2</v>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>6.61%</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>4348</t>
+        </is>
+      </c>
+      <c r="B65" t="n">
+        <v>1</v>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>1.74%</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>4377</t>
+        </is>
+      </c>
+      <c r="B66" t="n">
+        <v>8</v>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>8.76%</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>4444</t>
+        </is>
+      </c>
+      <c r="B67" t="n">
+        <v>6</v>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>0.70%</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>4446</t>
+        </is>
+      </c>
+      <c r="B68" t="n">
+        <v>8</v>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>4448</t>
+        </is>
+      </c>
+      <c r="B69" t="n">
+        <v>7</v>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>13.53%</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>4525</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>4528</t>
+        </is>
+      </c>
+      <c r="B71" t="n">
+        <v>6</v>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>0.84%</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>4537</t>
+        </is>
+      </c>
+      <c r="B72" t="n">
+        <v>7</v>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>7.91%</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>4539</t>
+        </is>
+      </c>
+      <c r="B73" t="n">
+        <v>7</v>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>4671</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>4674</t>
+        </is>
+      </c>
+      <c r="B75" t="n">
+        <v>6</v>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>2.63%</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>4675</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C70"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>MATCH_CODE</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>MAIDEN_OVERS</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>PERCENT_WICKETS_OF_ALL</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>3406</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>3407</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>3421</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>10.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>3437</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr"/>
+      <c r="C5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>3482</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr"/>
+      <c r="C6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>3483</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>3650</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>3705</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>10.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>3707</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr"/>
+      <c r="C10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>3721</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr"/>
+      <c r="C11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>3725</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>10.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>3764</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>10.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>3873</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr"/>
+      <c r="C14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>3918</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>3991</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr"/>
+      <c r="C16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>3993</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>20.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>3994</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>40.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>3996</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>3998</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>10.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>4006</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>4007</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>10.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>4008</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr"/>
+      <c r="C23" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>4009</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>10.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>4010</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>10.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>4040</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>10.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>4043</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>20.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>4092</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>4093</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>10.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>4097</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr"/>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>4129</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>10.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>4131</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>10.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>4132</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr"/>
+      <c r="C33" t="inlineStr"/>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>4140</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr"/>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>4154</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr"/>
+      <c r="C35" t="inlineStr"/>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>4160</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr"/>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>4163</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr"/>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>4164</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>20.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>4189</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>10.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>4190</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr"/>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>4192</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>20.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>4195</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>20.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>4198</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>20.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>4200</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>10.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>4202</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr"/>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>4203</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr"/>
+      <c r="C46" t="inlineStr"/>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>4257</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>20.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>4265</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>10.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>4290</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>30.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>4299</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>10.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>4301</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>60.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>4306</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>10.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>4309</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr"/>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>4315</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr"/>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>4323</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>10.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>4326</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr"/>
+      <c r="C56" t="inlineStr"/>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>4332</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr"/>
+      <c r="C57" t="inlineStr"/>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>4335</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>20.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>4340</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr"/>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>4348</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr"/>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>4377</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr"/>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>4444</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>10.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>4446</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>10.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>4448</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr"/>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>4525</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr"/>
+      <c r="C65" t="inlineStr"/>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>4528</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr"/>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>4537</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr"/>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>4539</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr"/>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>4671</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr"/>
+      <c r="C69" t="inlineStr"/>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>4675</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr"/>
+      <c r="C70" t="inlineStr"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>